--- a/Clasificacion de requerimientos.xlsx
+++ b/Clasificacion de requerimientos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Tareas universidad\2do semestre\Ingenieria de requisitos\Tarea1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5035066e1e3d597/Escritorio/ISWREQUERIMIENTOS202502-1Juan-Cuaran/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3323DFF4-8410-4C4F-9823-7124634455E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{3323DFF4-8410-4C4F-9823-7124634455E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC45CC3-9E58-4737-820F-817214E84615}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACC1BCDB-9CC2-42FC-8935-09FC5735A47D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -49,24 +49,15 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>Nivel_Prioridad</t>
-  </si>
-  <si>
     <t>RNF001</t>
   </si>
   <si>
-    <t>Alto</t>
-  </si>
-  <si>
     <t>RNF002</t>
   </si>
   <si>
     <t>RNF003</t>
   </si>
   <si>
-    <t>Medio</t>
-  </si>
-  <si>
     <t>R001</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>R007</t>
   </si>
   <si>
-    <t>R008</t>
-  </si>
-  <si>
     <t>Registrar contactos</t>
   </si>
   <si>
@@ -149,12 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Si el usuario intenta eliminar o buscar un contacto inexistente se debera mostrar un mensaje de advertencia </t>
-  </si>
-  <si>
-    <t>Actualizar Informacion</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir actualizar la informacion de contacto</t>
   </si>
 </sst>
 </file>
@@ -542,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F109C09A-59B9-4DCE-BA20-C4B41F56111A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,10 +535,9 @@
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="61.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,121 +547,88 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -718,35 +666,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
